--- a/Strategi Konversi KRS.xlsx
+++ b/Strategi Konversi KRS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E782FB2-4437-47B7-9BE9-F88AD7F7471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CCAE94-708B-4D67-AF73-986A26D83131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2FE6726F-36A0-401C-AA58-3D3A9DE84A13}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Plan 1</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Software quality and testing</t>
   </si>
   <si>
-    <t>Sistem temu kembali informasi</t>
-  </si>
-  <si>
     <t>Technopreneurship</t>
   </si>
   <si>
@@ -96,6 +93,96 @@
   </si>
   <si>
     <t>Strategi Matkul KRS Minat RPLD</t>
+  </si>
+  <si>
+    <t>Plan 1 luar konversi</t>
+  </si>
+  <si>
+    <t>KAMIS, 10:20:00 - 12:00:00(4507)</t>
+  </si>
+  <si>
+    <t>Plan 2 luar konversi</t>
+  </si>
+  <si>
+    <t>SELASA, 10:20:00 - 12:00:00(4705)</t>
+  </si>
+  <si>
+    <t>KAMIS, 10:20:00 - 12:00:00(4512)</t>
+  </si>
+  <si>
+    <t>Plan 3 luar konversi</t>
+  </si>
+  <si>
+    <t>KAMIS, 10:20:00 - 12:00:00(4515)</t>
+  </si>
+  <si>
+    <t>Plan 1b luar konversi</t>
+  </si>
+  <si>
+    <t>RABU, 10:20:00 - 12:00:00(4709)</t>
+  </si>
+  <si>
+    <t>SELASA, 10:20:00 - 12:00:00(4501)</t>
+  </si>
+  <si>
+    <t>Plan 2b luar konversi</t>
+  </si>
+  <si>
+    <t>SELASA, 10:20:00 - 12:00:00(4504)</t>
+  </si>
+  <si>
+    <t>Plan 3b luar koversi</t>
+  </si>
+  <si>
+    <t>KAMIS, 10:20:00 - 12:00:00(4516)</t>
+  </si>
+  <si>
+    <t>Plan 1c luar konversi</t>
+  </si>
+  <si>
+    <t>RABU, 10:20:00 - 12:00:00(4710)</t>
+  </si>
+  <si>
+    <t>SELASA, 10:20:00 - 12:00:00(4517)</t>
+  </si>
+  <si>
+    <t>Plan 2c luar konversi</t>
+  </si>
+  <si>
+    <t>SELASA, 10:20:00 - 12:00:00(4518)</t>
+  </si>
+  <si>
+    <t>Plan 3c luar konversi</t>
+  </si>
+  <si>
+    <t>SELASA, 10:20:00 - 12:00:00(4717)</t>
+  </si>
+  <si>
+    <t>Mengikuti atas</t>
+  </si>
+  <si>
+    <t>Plan 1d luar konversi</t>
+  </si>
+  <si>
+    <t>Plan 1e luar konversi</t>
+  </si>
+  <si>
+    <t>RABU, 10:20:00 - 12:00:00(4721)</t>
+  </si>
+  <si>
+    <t>Network management</t>
+  </si>
+  <si>
+    <t>Plan F luar konversi</t>
+  </si>
+  <si>
+    <t>RABU, 16:20:00 - 18:00:00(4524)</t>
+  </si>
+  <si>
+    <t>RABU, 18:30:00 - 20:10:00(4711)</t>
+  </si>
+  <si>
+    <t>RABU, 18:30:00 - 20:10:00(4712)</t>
   </si>
 </sst>
 </file>
@@ -499,23 +586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACABD635-80E0-4C14-9B07-75A4C740CB69}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.90625" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,13 +618,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -559,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -574,11 +661,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -627,7 +714,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -638,22 +725,22 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <f>SUM(B4:B12)</f>
@@ -665,13 +752,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -731,7 +818,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -742,17 +829,294 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>